--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2057345826734766</v>
+        <v>-0.2633423308076207</v>
       </c>
       <c r="D2">
-        <v>0.8370231844321023</v>
+        <v>0.7947374909435916</v>
       </c>
       <c r="E2">
         <v>0.6721960926833466</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1649015389288105</v>
+        <v>0.1596128116582426</v>
       </c>
       <c r="D3">
-        <v>0.8690413314440233</v>
+        <v>0.8746424273097646</v>
       </c>
       <c r="E3">
         <v>0.6721960926833466</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.218279787368392</v>
+        <v>1.963336204694945</v>
       </c>
       <c r="D4">
-        <v>0.02666910877497308</v>
+        <v>0.06237104623854806</v>
       </c>
       <c r="E4">
         <v>0.6721960926833466</v>
@@ -505,7 +505,7 @@
         <v>0.6179146643834642</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.171499601724234</v>
+        <v>2.239979968767079</v>
       </c>
       <c r="D5">
-        <v>0.03003304708178844</v>
+        <v>0.0355207219835183</v>
       </c>
       <c r="E5">
         <v>0.6721960926833466</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3980227024248142</v>
+        <v>0.3708920834244382</v>
       </c>
       <c r="D6">
-        <v>0.6906640530625192</v>
+        <v>0.7142653835892374</v>
       </c>
       <c r="E6">
         <v>0.6770855660645656</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.659033349287001</v>
+        <v>2.451826326039056</v>
       </c>
       <c r="D7">
-        <v>0.007910996594270303</v>
+        <v>0.02261802533419632</v>
       </c>
       <c r="E7">
         <v>0.6770855660645656</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.295184257835829</v>
+        <v>2.249545626871841</v>
       </c>
       <c r="D8">
-        <v>0.02184537654800134</v>
+        <v>0.03481651128637697</v>
       </c>
       <c r="E8">
         <v>0.6770855660645656</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.469247740140332</v>
+        <v>2.321485767588634</v>
       </c>
       <c r="D9">
-        <v>0.01363861769172225</v>
+        <v>0.02991569475022238</v>
       </c>
       <c r="E9">
         <v>0.6684382847269822</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.297925654412069</v>
+        <v>3.486425884470581</v>
       </c>
       <c r="D10">
-        <v>0.02168845176972689</v>
+        <v>0.002091076247400681</v>
       </c>
       <c r="E10">
         <v>0.6684382847269822</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.2011092678594747</v>
+        <v>-0.2182745357496441</v>
       </c>
       <c r="D11">
-        <v>0.840637494638526</v>
+        <v>0.829227234442641</v>
       </c>
       <c r="E11">
         <v>0.6179146643834642</v>
